--- a/score.xlsx
+++ b/score.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HocDaiHoc\CS112\Our Exercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\subjects\uit\cs112\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F0BDF-5949-4382-BBF7-5BD55E05E78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Trọng số</t>
   </si>
@@ -99,12 +111,15 @@
   </si>
   <si>
     <t>Tổng</t>
+  </si>
+  <si>
+    <t>no comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -175,11 +190,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,11 +473,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,6 +574,9 @@
       <c r="D8">
         <v>10</v>
       </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
       <c r="G8">
         <v>10</v>
       </c>
@@ -568,11 +585,9 @@
       </c>
       <c r="K8">
         <f>((C8*0.5+D8*0.5)+(F8*0.5+G8*0.5)+(I8*0.5+J8*0.5))/3</f>
-        <v>5</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -581,6 +596,9 @@
       <c r="D9">
         <v>10</v>
       </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
       <c r="G9">
         <v>10</v>
       </c>
@@ -589,11 +607,9 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K22" si="0">((C9*0.5+D9*0.5)+(F9*0.5+G9*0.5)+(I9*0.5+J9*0.5))/3</f>
-        <v>5</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -602,6 +618,9 @@
       <c r="D10">
         <v>10</v>
       </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
       <c r="G10">
         <v>10</v>
       </c>
@@ -610,7 +629,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -620,6 +639,9 @@
       <c r="D11">
         <v>10</v>
       </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
       <c r="G11">
         <v>10</v>
       </c>
@@ -628,7 +650,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -638,6 +660,9 @@
       <c r="D12">
         <v>10</v>
       </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
       <c r="G12">
         <v>10</v>
       </c>
@@ -646,7 +671,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -656,6 +681,12 @@
       <c r="D13">
         <v>10</v>
       </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>9.75</v>
+      </c>
       <c r="G13">
         <v>10</v>
       </c>
@@ -664,7 +695,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.625</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -674,6 +705,9 @@
       <c r="D14">
         <v>10</v>
       </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
       <c r="G14">
         <v>10</v>
       </c>
@@ -682,7 +716,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -692,6 +726,9 @@
       <c r="D15">
         <v>10</v>
       </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
       <c r="G15">
         <v>10</v>
       </c>
@@ -700,7 +737,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -710,6 +747,9 @@
       <c r="D16">
         <v>10</v>
       </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
       <c r="G16">
         <v>10</v>
       </c>
@@ -718,7 +758,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -728,6 +768,9 @@
       <c r="D17">
         <v>10</v>
       </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
       <c r="G17">
         <v>10</v>
       </c>
@@ -736,7 +779,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -746,6 +789,12 @@
       <c r="D18">
         <v>10</v>
       </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>9.75</v>
+      </c>
       <c r="G18">
         <v>10</v>
       </c>
@@ -754,7 +803,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.625</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -773,6 +822,12 @@
       <c r="D20">
         <v>10</v>
       </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>9.75</v>
+      </c>
       <c r="G20">
         <v>10</v>
       </c>
@@ -781,7 +836,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.625</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -791,6 +846,9 @@
       <c r="D21">
         <v>10</v>
       </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
       <c r="G21">
         <v>10</v>
       </c>
@@ -799,7 +857,7 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -809,12 +867,18 @@
       <c r="D22">
         <v>10</v>
       </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
       <c r="J22">
         <v>10</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/score.xlsx
+++ b/score.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>Trọng số</t>
   </si>
@@ -99,6 +99,27 @@
   </si>
   <si>
     <t>Tổng</t>
+  </si>
+  <si>
+    <t>Thuật tham lam, không đúng nếu testcase chặt chẽ</t>
+  </si>
+  <si>
+    <t>Tốt</t>
+  </si>
+  <si>
+    <t>Tốt, có thể không cần lưu mảng days</t>
+  </si>
+  <si>
+    <t>Tốt,nhóm đầu tiên, không cmt,có thể không cần lưu mảng days</t>
+  </si>
+  <si>
+    <t>Tốt, không cmt</t>
+  </si>
+  <si>
+    <t>Tốt, có thể không cần lưu mảng days, không cmt</t>
+  </si>
+  <si>
+    <t>Tốt,không cmt</t>
   </si>
 </sst>
 </file>
@@ -122,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,12 +152,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -159,27 +192,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,24 +618,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.08984375" customWidth="1"/>
-    <col min="2" max="2" width="46.81640625" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" customWidth="1"/>
     <col min="3" max="3" width="21.08984375" customWidth="1"/>
     <col min="5" max="5" width="34.7265625" customWidth="1"/>
     <col min="6" max="6" width="10.453125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" customWidth="1"/>
     <col min="11" max="11" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G1" s="5"/>
+    </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>0</v>
@@ -499,322 +660,594 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="17"/>
+      <c r="K6" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8">
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="10">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10">
+        <v>10</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="J8" s="10">
+        <v>10</v>
+      </c>
+      <c r="K8" s="10">
         <f>((C8*0.5+D8*0.5)+(F8*0.5+G8*0.5)+(I8*0.5+J8*0.5))/3</f>
-        <v>5</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9">
+      <c r="B9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="11">
+        <v>10</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="11">
+        <v>10</v>
+      </c>
+      <c r="J9" s="11">
+        <v>10</v>
+      </c>
+      <c r="K9" s="11">
         <f t="shared" ref="K9:K22" si="0">((C9*0.5+D9*0.5)+(F9*0.5+G9*0.5)+(I9*0.5+J9*0.5))/3</f>
-        <v>5</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
+        <v>9.9166666666666661</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="K10">
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="12">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="12">
+        <v>10</v>
+      </c>
+      <c r="G10" s="12">
+        <v>10</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="12">
+        <v>10</v>
+      </c>
+      <c r="J10" s="12">
+        <v>10</v>
+      </c>
+      <c r="K10" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11">
+      <c r="B11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11">
+        <v>10</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="11">
+        <v>10</v>
+      </c>
+      <c r="J11" s="11">
+        <v>10</v>
+      </c>
+      <c r="K11" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12">
+      <c r="B12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12">
+        <v>10</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="12">
+        <v>10</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="12">
+        <v>10</v>
+      </c>
+      <c r="J12" s="12">
+        <v>10</v>
+      </c>
+      <c r="K12" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="J13">
-        <v>10</v>
-      </c>
-      <c r="K13">
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11">
+        <v>9.75</v>
+      </c>
+      <c r="D13" s="11">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="G13" s="11">
+        <v>10</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="11">
+        <v>10</v>
+      </c>
+      <c r="J13" s="11">
+        <v>10</v>
+      </c>
+      <c r="K13" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9.875</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>10</v>
-      </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="K14">
+      <c r="B14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="12">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12">
+        <v>10</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="12">
+        <v>10</v>
+      </c>
+      <c r="G14" s="12">
+        <v>10</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="12">
+        <v>10</v>
+      </c>
+      <c r="J14" s="12">
+        <v>10</v>
+      </c>
+      <c r="K14" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="J15">
-        <v>10</v>
-      </c>
-      <c r="K15">
+      <c r="B15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="11">
+        <v>9.75</v>
+      </c>
+      <c r="D15" s="11">
+        <v>10</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="11">
+        <v>10</v>
+      </c>
+      <c r="G15" s="11">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="J15" s="11">
+        <v>10</v>
+      </c>
+      <c r="K15" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9.875</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-      <c r="J16">
-        <v>10</v>
-      </c>
-      <c r="K16">
+      <c r="B16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="D16" s="12">
+        <v>10</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="12">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12">
+        <v>10</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="J16" s="12">
+        <v>10</v>
+      </c>
+      <c r="K16" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9.8333333333333339</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="J17">
-        <v>10</v>
-      </c>
-      <c r="K17">
+      <c r="B17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="11">
+        <v>10</v>
+      </c>
+      <c r="D17" s="11">
+        <v>10</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="11">
+        <v>10</v>
+      </c>
+      <c r="G17" s="11">
+        <v>10</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="11">
+        <v>10</v>
+      </c>
+      <c r="J17" s="11">
+        <v>10</v>
+      </c>
+      <c r="K17" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>10</v>
-      </c>
-      <c r="J18">
-        <v>10</v>
-      </c>
-      <c r="K18">
+      <c r="B18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="D18" s="12">
+        <v>10</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="G18" s="12">
+        <v>10</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="12">
+        <v>10</v>
+      </c>
+      <c r="J18" s="12">
+        <v>10</v>
+      </c>
+      <c r="K18" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9.8333333333333339</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K19">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
-      <c r="J20">
-        <v>10</v>
-      </c>
-      <c r="K20">
+      <c r="B20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="D20" s="12">
+        <v>10</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="G20" s="12">
+        <v>10</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="J20" s="12">
+        <v>10</v>
+      </c>
+      <c r="K20" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>10</v>
-      </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
-      <c r="K21">
+      <c r="B21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="11">
+        <v>9.75</v>
+      </c>
+      <c r="D21" s="11">
+        <v>10</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="11">
+        <v>10</v>
+      </c>
+      <c r="G21" s="11">
+        <v>10</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="J21" s="11">
+        <v>10</v>
+      </c>
+      <c r="K21" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9.875</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="J22">
-        <v>10</v>
-      </c>
-      <c r="K22">
+      <c r="B22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="13">
+        <v>10</v>
+      </c>
+      <c r="D22" s="13">
+        <v>10</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="13">
+        <v>10</v>
+      </c>
+      <c r="G22" s="13">
+        <v>10</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="13">
+        <v>10</v>
+      </c>
+      <c r="J22" s="13">
+        <v>10</v>
+      </c>
+      <c r="K22" s="13">
         <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/score.xlsx
+++ b/score.xlsx
@@ -119,7 +119,7 @@
     <t>Tốt, có thể không cần lưu mảng days, không cmt</t>
   </si>
   <si>
-    <t>Tốt,không cmt</t>
+    <t>Tốt, nhóm đầu tiên, không cmt</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -746,14 +746,14 @@
         <v>31</v>
       </c>
       <c r="I8" s="10">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="J8" s="10">
         <v>10</v>
       </c>
       <c r="K8" s="10">
         <f>((C8*0.5+D8*0.5)+(F8*0.5+G8*0.5)+(I8*0.5+J8*0.5))/3</f>
-        <v>9.8333333333333339</v>
+        <v>9.875</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="3"/>

--- a/score.xlsx
+++ b/score.xlsx
@@ -110,9 +110,6 @@
     <t>Tốt, có thể không cần lưu mảng days</t>
   </si>
   <si>
-    <t>Tốt,nhóm đầu tiên, không cmt,có thể không cần lưu mảng days</t>
-  </si>
-  <si>
     <t>Tốt, không cmt</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>Tốt, nhóm đầu tiên, không cmt</t>
+  </si>
+  <si>
+    <t>Tốt,nhóm đầu tiên, có thể không cần lưu mảng days</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,7 +725,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="10">
         <v>9.5</v>
@@ -743,7 +743,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="10">
         <v>9.75</v>
@@ -764,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="11">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="7">
         <v>10</v>
@@ -792,7 +792,7 @@
       </c>
       <c r="K9" s="11">
         <f t="shared" ref="K9:K22" si="0">((C9*0.5+D9*0.5)+(F9*0.5+G9*0.5)+(I9*0.5+J9*0.5))/3</f>
-        <v>9.9166666666666661</v>
+        <v>10</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -920,10 +920,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F13" s="11">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="G13" s="11">
         <v>10</v>
@@ -939,7 +939,7 @@
       </c>
       <c r="K13" s="11">
         <f t="shared" si="0"/>
-        <v>9.875</v>
+        <v>9.9583333333333339</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -983,10 +983,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" s="11">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="D15" s="11">
         <v>10</v>
@@ -1001,17 +1001,17 @@
         <v>10</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I15" s="11">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J15" s="11">
         <v>10</v>
       </c>
       <c r="K15" s="11">
         <f t="shared" si="0"/>
-        <v>9.875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -1019,10 +1019,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" s="12">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="D16" s="12">
         <v>10</v>
@@ -1037,17 +1037,17 @@
         <v>10</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I16" s="12">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J16" s="12">
         <v>10</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" si="0"/>
-        <v>9.8333333333333339</v>
+        <v>9.9583333333333339</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1091,19 +1091,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" s="12">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D18" s="12">
         <v>10</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F18" s="12">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="G18" s="12">
         <v>10</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="K18" s="12">
         <f t="shared" si="0"/>
-        <v>9.8333333333333339</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1147,7 +1147,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="12">
         <v>9.5</v>
@@ -1156,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="12">
         <v>9.5</v>
@@ -1165,7 +1165,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I20" s="12">
         <v>9.5</v>
@@ -1201,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I21" s="11">
         <v>9.5</v>

--- a/score.xlsx
+++ b/score.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>Trọng số</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Tốt,nhóm đầu tiên, có thể không cần lưu mảng days</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>Nộp bài trễ</t>
   </si>
 </sst>
 </file>
@@ -143,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,8 +174,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -293,11 +305,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -338,6 +372,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,7 +666,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,6 +733,9 @@
       <c r="K6" s="20" t="s">
         <v>24</v>
       </c>
+      <c r="L6" s="23" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
@@ -718,7 +766,8 @@
       <c r="J7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
@@ -748,13 +797,14 @@
       <c r="I8" s="10">
         <v>9.75</v>
       </c>
-      <c r="J8" s="10">
-        <v>10</v>
-      </c>
-      <c r="K8" s="10">
-        <f>((C8*0.5+D8*0.5)+(F8*0.5+G8*0.5)+(I8*0.5+J8*0.5))/3</f>
+      <c r="J8" s="24">
+        <v>10</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" ref="K8:K18" si="0">((C8*0.5+D8*0.5)+(F8*0.5+G8*0.5)+(I8*0.5+J8*0.5))/3+L8</f>
         <v>9.875</v>
       </c>
+      <c r="L8" s="29"/>
       <c r="M8" s="2"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -787,13 +837,14 @@
       <c r="I9" s="11">
         <v>10</v>
       </c>
-      <c r="J9" s="11">
-        <v>10</v>
-      </c>
-      <c r="K9" s="11">
-        <f t="shared" ref="K9:K22" si="0">((C9*0.5+D9*0.5)+(F9*0.5+G9*0.5)+(I9*0.5+J9*0.5))/3</f>
-        <v>10</v>
-      </c>
+      <c r="J9" s="7">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L9" s="22"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="4"/>
@@ -826,13 +877,14 @@
       <c r="I10" s="12">
         <v>10</v>
       </c>
-      <c r="J10" s="12">
-        <v>10</v>
-      </c>
-      <c r="K10" s="12">
+      <c r="J10" s="25">
+        <v>10</v>
+      </c>
+      <c r="K10" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
@@ -862,13 +914,14 @@
       <c r="I11" s="11">
         <v>10</v>
       </c>
-      <c r="J11" s="11">
-        <v>10</v>
-      </c>
-      <c r="K11" s="11">
+      <c r="J11" s="7">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
@@ -898,13 +951,14 @@
       <c r="I12" s="12">
         <v>10</v>
       </c>
-      <c r="J12" s="12">
-        <v>10</v>
-      </c>
-      <c r="K12" s="12">
+      <c r="J12" s="25">
+        <v>10</v>
+      </c>
+      <c r="K12" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
@@ -934,13 +988,14 @@
       <c r="I13" s="11">
         <v>10</v>
       </c>
-      <c r="J13" s="11">
-        <v>10</v>
-      </c>
-      <c r="K13" s="11">
+      <c r="J13" s="7">
+        <v>10</v>
+      </c>
+      <c r="K13" s="7">
         <f t="shared" si="0"/>
         <v>9.9583333333333339</v>
       </c>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
@@ -970,13 +1025,14 @@
       <c r="I14" s="12">
         <v>10</v>
       </c>
-      <c r="J14" s="12">
-        <v>10</v>
-      </c>
-      <c r="K14" s="12">
+      <c r="J14" s="25">
+        <v>10</v>
+      </c>
+      <c r="K14" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
@@ -1006,13 +1062,14 @@
       <c r="I15" s="11">
         <v>10</v>
       </c>
-      <c r="J15" s="11">
-        <v>10</v>
-      </c>
-      <c r="K15" s="11">
+      <c r="J15" s="7">
+        <v>10</v>
+      </c>
+      <c r="K15" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
@@ -1042,15 +1099,16 @@
       <c r="I16" s="12">
         <v>10</v>
       </c>
-      <c r="J16" s="12">
-        <v>10</v>
-      </c>
-      <c r="K16" s="12">
+      <c r="J16" s="25">
+        <v>10</v>
+      </c>
+      <c r="K16" s="25">
         <f t="shared" si="0"/>
         <v>9.9583333333333339</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
@@ -1078,15 +1136,16 @@
       <c r="I17" s="11">
         <v>10</v>
       </c>
-      <c r="J17" s="11">
-        <v>10</v>
-      </c>
-      <c r="K17" s="11">
+      <c r="J17" s="7">
+        <v>10</v>
+      </c>
+      <c r="K17" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>18</v>
       </c>
@@ -1114,35 +1173,58 @@
       <c r="I18" s="12">
         <v>10</v>
       </c>
-      <c r="J18" s="12">
-        <v>10</v>
-      </c>
-      <c r="K18" s="12">
+      <c r="J18" s="25">
+        <v>10</v>
+      </c>
+      <c r="K18" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="11">
+        <v>10</v>
+      </c>
+      <c r="D19" s="11">
+        <v>10</v>
+      </c>
       <c r="E19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F19" s="11">
+        <v>10</v>
+      </c>
+      <c r="G19" s="11">
+        <v>10</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="J19" s="7">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7">
+        <f>((C19*0.5+D19*0.5)+(F19*0.5+G19*0.5)+(I19*0.5+J19*0.5))/3+L19</f>
+        <v>8.9166666666666661</v>
+      </c>
+      <c r="L19" s="22">
+        <v>-1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>20</v>
       </c>
@@ -1170,15 +1252,16 @@
       <c r="I20" s="12">
         <v>9.5</v>
       </c>
-      <c r="J20" s="12">
-        <v>10</v>
-      </c>
-      <c r="K20" s="12">
-        <f t="shared" si="0"/>
+      <c r="J20" s="25">
+        <v>10</v>
+      </c>
+      <c r="K20" s="25">
+        <f t="shared" ref="K20:K22" si="1">((C20*0.5+D20*0.5)+(F20*0.5+G20*0.5)+(I20*0.5+J20*0.5))/3+L20</f>
         <v>9.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
@@ -1206,15 +1289,16 @@
       <c r="I21" s="11">
         <v>9.5</v>
       </c>
-      <c r="J21" s="11">
-        <v>10</v>
-      </c>
-      <c r="K21" s="11">
-        <f t="shared" si="0"/>
+      <c r="J21" s="7">
+        <v>10</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="1"/>
         <v>9.875</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>22</v>
       </c>
@@ -1242,13 +1326,14 @@
       <c r="I22" s="13">
         <v>10</v>
       </c>
-      <c r="J22" s="13">
-        <v>10</v>
-      </c>
-      <c r="K22" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="J22" s="26">
+        <v>10</v>
+      </c>
+      <c r="K22" s="26">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L22" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
